--- a/conversions-test-cases.xlsx
+++ b/conversions-test-cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omar Usman\Downloads\CPR Final\Personal\Version Two\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omar Usman\Downloads\CPR Final\V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCBAF44-0F77-4ABF-83F2-D22C297FC1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9B130E-7CDE-46E3-9D29-D5F2B3C26644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="4290" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="converting" sheetId="3" r:id="rId1"/>
@@ -767,7 +767,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="77">
   <si>
     <t>Comments</t>
   </si>
@@ -1003,12 +1003,46 @@
   <si>
     <t>Also breaks input buffer causing it to take a false input</t>
   </si>
+  <si>
+    <t>negative 1 with 77 0's
+(-100000000000000000000000000000000000000000000000000000000000000000000000000000)</t>
+  </si>
+  <si>
+    <t>1 with 77 0's
+(1000000000000000000000000000000000000000000000000000000000000000000000000000000)</t>
+  </si>
+  <si>
+    <t>negative 1 with 80 0's followed by a decimal and 10000
+(-100000000000000000000000000000000000000000000000000000000000000000000000000000000.1000)</t>
+  </si>
+  <si>
+    <t>1 with 80 0's followed by a decimal and 10000
+100000000000000000000000000000000000000000000000000000000000000000000000000000000.1000)</t>
+  </si>
+  <si>
+    <t>"-10000000000000000470601344959054695891559601407866630764278709534898249531392.000000"</t>
+  </si>
+  <si>
+    <t>"99999999999999998278261272554585856747747644714015897553975120217811154108416.000000"</t>
+  </si>
+  <si>
+    <t>"314159265.000000"</t>
+  </si>
+  <si>
+    <t>"5.629514"</t>
+  </si>
+  <si>
+    <t>Adds leading 0's which may be unwanted</t>
+  </si>
+  <si>
+    <t>Fails to hold exact value given</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1021,13 +1055,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1285,14 +1312,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1312,10 +1335,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1324,19 +1347,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1360,30 +1377,127 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1836,10 +1950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1854,56 +1968,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="26" t="str">
+      <c r="C1" s="25" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
         <v>Save As conversions_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1965,16 +2079,16 @@
         <v>40</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="2">
@@ -1992,7 +2106,7 @@
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2015,7 +2129,7 @@
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="7">
@@ -2121,34 +2235,34 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -2218,16 +2332,16 @@
         <v>3.1415926500000002</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="2">
@@ -2245,7 +2359,7 @@
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2266,7 +2380,7 @@
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="7">
@@ -2289,7 +2403,7 @@
       <c r="A22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="7">
@@ -2397,34 +2511,34 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="28"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -2434,59 +2548,256 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="9"/>
+    <row r="29" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="7">
+        <v>314159265</v>
+      </c>
+      <c r="D31" s="7">
+        <v>314159265</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5.6295141299999996</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5.6295141299999996</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="7">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2">
+        <v>30</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2495,100 +2806,156 @@
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F5 F14:F15 F9:F11 F27:F1048576">
-    <cfRule type="expression" dxfId="23" priority="23">
+  <conditionalFormatting sqref="F4:F5 F14:F15 F9:F11 F27:F28 F40:F1048576">
+    <cfRule type="expression" dxfId="37" priority="37">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="36" priority="38">
       <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="35" priority="35">
       <formula>ISNUMBER(SEARCH("PASS",$F7))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="34" priority="36">
       <formula>ISNUMBER(SEARCH("FAIL",$F7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="33" priority="33">
       <formula>ISNUMBER(SEARCH("PASS",$F13))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>ISNUMBER(SEARCH("FAIL",$F13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="31" priority="31">
       <formula>ISNUMBER(SEARCH("PASS",$F12))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="30" priority="32">
       <formula>ISNUMBER(SEARCH("FAIL",$F12))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="29" priority="29">
       <formula>ISNUMBER(SEARCH("PASS",$F8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="28" priority="30">
       <formula>ISNUMBER(SEARCH("FAIL",$F8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F17">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>ISNUMBER(SEARCH("PASS",$F16))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>ISNUMBER(SEARCH("FAIL",$F16))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>ISNUMBER(SEARCH("PASS",$F19))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>ISNUMBER(SEARCH("FAIL",$F19))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="23" priority="23">
       <formula>ISNUMBER(SEARCH("PASS",$F20))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>ISNUMBER(SEARCH("FAIL",$F20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F24">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>ISNUMBER(SEARCH("PASS",$F22))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>ISNUMBER(SEARCH("FAIL",$F22))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>ISNUMBER(SEARCH("PASS",$F26))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>ISNUMBER(SEARCH("FAIL",$F26))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>ISNUMBER(SEARCH("PASS",$F25))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>ISNUMBER(SEARCH("FAIL",$F25))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>ISNUMBER(SEARCH("PASS",$F21))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>ISNUMBER(SEARCH("FAIL",$F21))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:F30">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>ISNUMBER(SEARCH("PASS",$F29))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>ISNUMBER(SEARCH("FAIL",$F29))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>ISNUMBER(SEARCH("PASS",$F32))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>ISNUMBER(SEARCH("FAIL",$F32))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>ISNUMBER(SEARCH("PASS",$F33))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>ISNUMBER(SEARCH("FAIL",$F33))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:F37">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>ISNUMBER(SEARCH("PASS",$F35))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>ISNUMBER(SEARCH("FAIL",$F35))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>ISNUMBER(SEARCH("PASS",$F39))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>ISNUMBER(SEARCH("FAIL",$F39))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>ISNUMBER(SEARCH("PASS",$F38))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>ISNUMBER(SEARCH("FAIL",$F38))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>ISNUMBER(SEARCH("PASS",$F21))</formula>
+      <formula>ISNUMBER(SEARCH("PASS",$F34))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>ISNUMBER(SEARCH("FAIL",$F21))</formula>
+      <formula>ISNUMBER(SEARCH("FAIL",$F34))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
